--- a/uploaded_files/cleaned_Feb to Jan.xlsx
+++ b/uploaded_files/cleaned_Feb to Jan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,51 +493,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Catering &amp; Décor (Menu Sale)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>21502500</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19837550</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>1664950</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60.13790395387316</v>
-      </c>
-      <c r="I2" t="n">
-        <v>56.22685918052269</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.392921504923743</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.911044773350469</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euphoria Décor</t>
+          <t xml:space="preserve"> Catering &amp; Décor (Menu Sale)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1141000</v>
+        <v>21502500</v>
       </c>
       <c r="C3" t="n">
-        <v>492600</v>
+        <v>19837550</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -549,69 +535,55 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>648400</v>
+        <v>1664950</v>
       </c>
       <c r="H3" t="n">
-        <v>3.191133515236334</v>
+        <v>60.13790395387316</v>
       </c>
       <c r="I3" t="n">
-        <v>1.396208243070615</v>
+        <v>56.22685918052269</v>
       </c>
       <c r="J3" t="n">
-        <v>131.628095818108</v>
+        <v>8.392921504923743</v>
       </c>
       <c r="K3" t="n">
-        <v>1.794925272165719</v>
+        <v>3.911044773350469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Food/Kg/Box</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9445710</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10069890</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t xml:space="preserve"> Euphoria</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>-624180</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26.41763519386766</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.5417446707559</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-6.198478831447017</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-2.124109476888242</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Additional Food &amp; Stations</t>
+          <t xml:space="preserve"> Euphoria Décor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230310</v>
+        <v>1141000</v>
       </c>
       <c r="C5" t="n">
-        <v>1406350</v>
+        <v>492600</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -620,108 +592,96 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>-1176040</v>
+        <v>648400</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6441279227818406</v>
+        <v>3.191133515236334</v>
       </c>
       <c r="I5" t="n">
-        <v>3.986109343569549</v>
+        <v>1.396208243070615</v>
       </c>
       <c r="J5" t="n">
-        <v>-83.62356454652114</v>
+        <v>131.628095818108</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.341981420787708</v>
+        <v>1.794925272165719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beverages</t>
+          <t>Total 0802 Euphoria</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>700840</v>
+        <v>1141000</v>
       </c>
       <c r="C6" t="n">
-        <v>650950</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>492600</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>49890</v>
+        <v>648400</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96009992359179</v>
+        <v>3.191133515236334</v>
       </c>
       <c r="I6" t="n">
-        <v>1.845029954987448</v>
+        <v>1.396208243070615</v>
       </c>
       <c r="J6" t="n">
-        <v>7.664183116982872</v>
+        <v>131.628095818108</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1150699686043422</v>
+        <v>1.794925272165719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Additional Item &amp; Setups</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2318160</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2687130</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t xml:space="preserve"> Food Sale</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
-        <v>-368970</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.4833988340756</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.616307462854937</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-13.73100668743231</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-1.132908628779336</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Setup &amp; Services</t>
+          <t xml:space="preserve"> Food/Kg/Box</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232000</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>9445710</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10069890</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Income</t>
@@ -731,25 +691,33 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-624180</v>
+      </c>
       <c r="H8" t="n">
-        <v>0.6488544921427076</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>26.41763519386766</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28.5417446707559</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-6.198478831447017</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-2.124109476888242</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kitchen Overhead Share</t>
+          <t xml:space="preserve"> Additional Food &amp; Stations</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184800</v>
+        <v>230310</v>
       </c>
       <c r="C9" t="n">
-        <v>136800</v>
+        <v>1406350</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -758,23 +726,3966 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>-1176040</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6441279227818406</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.986109343569549</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-83.62356454652114</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-3.341981420787708</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total 0803 Food Sale</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9676020</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11476240</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1800220</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27.06176311664949</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.52785401432545</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-15.68649662258719</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-5.466090897675952</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>700840</v>
+      </c>
+      <c r="C11" t="n">
+        <v>650950</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>49890</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.96009992359179</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.845029954987448</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.664183116982872</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1150699686043422</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Additional Item &amp; Setups</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2318160</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2687130</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-368970</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.4833988340756</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.616307462854937</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-13.73100668743231</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.132908628779336</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Setup &amp; Services</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>232000</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0.6488544921427076</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kitchen Overhead Share</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>184800</v>
+      </c>
+      <c r="C14" t="n">
+        <v>136800</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>48000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>0.5168461644309155</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>0.3877411442388554</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J14" t="n">
         <v>35.08771929824561</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K14" t="n">
         <v>0.1291050201920601</v>
       </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Income</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>35755320</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35281270</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>474050</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.343630770661033</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Supplies and materials - COS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Meat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mutton</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2559356</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2829655</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-270299</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.157972575829276</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.020275347230982</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-9.552365924467823</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.862302771401706</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chicken</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4113591</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3120564</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>993027</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11.50483620339575</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.844817661042246</v>
+      </c>
+      <c r="J20" t="n">
+        <v>31.82203601656624</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.6600185423535</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beef</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>673301</v>
+      </c>
+      <c r="C21" t="n">
+        <v>381384</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>291917</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.883079217302488</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.08098149528064</v>
+      </c>
+      <c r="J21" t="n">
+        <v>76.54149099070753</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8020977220218477</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fish &amp; Prawns</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>483172</v>
+      </c>
+      <c r="C22" t="n">
+        <v>954170</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-470998</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.351328977058519</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.704466137415122</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-49.36206336397078</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1.353137160356602</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Total 090101 Meat</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7829420</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7285773</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>543647</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21.89721697358603</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.65054064096899</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.461761435608823</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.246676332617039</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dry Stock</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oil</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>770802</v>
+      </c>
+      <c r="C25" t="n">
+        <v>748719</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22083</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.155768707985273</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.122142995419383</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.949437639488246</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.03362571256589064</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flour</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>430281</v>
+      </c>
+      <c r="C26" t="n">
+        <v>453900</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-23619</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.203404136783002</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.286518314108307</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-5.203569068076669</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.08311417732530541</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rice</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>462461</v>
+      </c>
+      <c r="C27" t="n">
+        <v>426291</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>36170</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.293404729701762</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.208264328353259</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.484814363896962</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.08514040134850256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sugar</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>168128</v>
+      </c>
+      <c r="C28" t="n">
+        <v>152502</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>15626</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4702181381679705</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4322463448736397</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10.24642299773118</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.03797179329433076</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Dry Stock</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1703777</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1928059</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-224282</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.76510068991132</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.46482312002941</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-11.6325278427683</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.6997224301180895</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Total 090102 Dry Stock</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3535449</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3709471</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-174022</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.887896402549327</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10.513995102784</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-4.691288865716971</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.6260987002346716</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Food</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>638306</v>
+      </c>
+      <c r="C31" t="n">
+        <v>515152</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>123154</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.78520567009329</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.460128844568237</v>
+      </c>
+      <c r="J31" t="n">
+        <v>23.90634220579557</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3250768255250527</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dairy &amp; Bakery Items</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1644017</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2170088</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-526071</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.597964722452491</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.150821668267611</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-24.24192014333059</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-1.55285694581512</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1116001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1056654</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>59347</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.121216646921353</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.994943209243885</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.616502658391489</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1262734376774682</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages &amp; Soft drinks</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>396814</v>
+      </c>
+      <c r="C34" t="n">
+        <v>409496</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-12682</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.109804079504812</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.160661166675689</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-3.096977748256393</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.05085708717087727</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Consumables</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>408318</v>
+      </c>
+      <c r="C35" t="n">
+        <v>667966</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-259648</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.141978312597957</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.89325951134979</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-38.8714395642892</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.7512811987518323</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Disposible Material</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>480005</v>
+      </c>
+      <c r="C36" t="n">
+        <v>532241</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-52236</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.34247155388345</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.50856530958211</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-9.814351017678081</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.1660937556986597</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Total 0901 Supplies and materials - COS</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>16048330</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16346841</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-298511</v>
+      </c>
+      <c r="H37" t="n">
+        <v>44.88375436158871</v>
+      </c>
+      <c r="I37" t="n">
+        <v>46.33291545344031</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1.826108175885481</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1.449161091851603</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cost of labour-COS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries- Operation Staff</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4811631</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4858181</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-46550</v>
+      </c>
+      <c r="H39" t="n">
+        <v>13.45710512449616</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13.7698586247037</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.958177556579304</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.3127535002075438</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Labour Out Sourced</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>486360</v>
+      </c>
+      <c r="C40" t="n">
+        <v>800440</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-314080</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.360245132752273</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.268739192211618</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-39.23841886962171</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.9084940594593454</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wages &amp; Allowance</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>814738</v>
+      </c>
+      <c r="C41" t="n">
+        <v>720988</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>93750</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.278648324221403</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.04354321712342</v>
+      </c>
+      <c r="J41" t="n">
+        <v>13.00299034103203</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2351051070979826</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Total 0902 Cost of labour-COS</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>6112729</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6379609</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-266880</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17.09599858146984</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18.08214103403874</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-4.183328476713855</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.9861424525689055</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other costs of sales - COS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rents, rates &amp; taxes</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1508278</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1519158</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-10880</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.21833170560353</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.305848400581952</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.7161862031467432</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.08751669497842202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Utilitites</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2897725</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2330177</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>567548</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8.104318462259602</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.604572341075024</v>
+      </c>
+      <c r="J45" t="n">
+        <v>24.35643300916626</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.499746121184578</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1225202</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1398929</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-173727</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.42662854087168</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.965075520240626</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-12.41857163587287</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.5384469793689457</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; maintinance</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>119429</v>
+      </c>
+      <c r="C47" t="n">
+        <v>281359</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-161930</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3340174273366873</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.7974741272068721</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-57.55280620132998</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.4634566998701848</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Boarding &amp; Lodging - COS</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>115085</v>
+      </c>
+      <c r="C48" t="n">
+        <v>92482</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>22603</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3218681863286358</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.2621277522039315</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24.44043165156463</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.05974043412470438</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Printing &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>429480</v>
+      </c>
+      <c r="C49" t="n">
+        <v>583115</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-153635</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.201163910713147</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.652760799143568</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-26.34728998568036</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.4515968884304213</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laundry</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>231100</v>
+      </c>
+      <c r="C50" t="n">
+        <v>264456</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-33356</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6463373841990506</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7495648540996398</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-12.61306228635387</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.1032274699005892</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total 0903 Other costs of sales - COS</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6526299</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6469676</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>56623</v>
+      </c>
+      <c r="H51" t="n">
+        <v>18.25266561731233</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18.33742379455161</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8752061154221634</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.08475817723928025</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Total Cost of Sales</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>28687358</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29196126</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-508768</v>
+      </c>
+      <c r="H52" t="n">
+        <v>80.23241856037087</v>
+      </c>
+      <c r="I52" t="n">
+        <v>82.75248028203066</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-1.742587355596424</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-2.520061721659783</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7067962</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6085144</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>982818</v>
+      </c>
+      <c r="H53" t="n">
+        <v>19.76758143962912</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17.24751971796934</v>
+      </c>
+      <c r="J53" t="n">
+        <v>16.15110505191003</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.520061721659786</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Income</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6438800</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6712350</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-273550</v>
+      </c>
+      <c r="H56" t="n">
+        <v>18.00794958624339</v>
+      </c>
+      <c r="I56" t="n">
+        <v>19.02525050827252</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-4.075323843363353</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1.01730092202913</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>872291</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1345467</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-473176</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.439611783645063</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.813544693827632</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-35.16816094337505</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-1.373932910182568</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Total 15 Other Income</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7311091</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8057817</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-746726</v>
+      </c>
+      <c r="H58" t="n">
+        <v>20.44756136988845</v>
+      </c>
+      <c r="I58" t="n">
+        <v>22.83879520210015</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-9.26710050625374</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-2.391233832211697</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Total Other Income(Loss)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7311091</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8057817</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-746726</v>
+      </c>
+      <c r="H59" t="n">
+        <v>20.44756136988845</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22.83879520210015</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-9.26710050625374</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2.391233832211697</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salaries &amp; Wages</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>629600</v>
+      </c>
+      <c r="C63" t="n">
+        <v>620000</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9600</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.760856845918314</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.757306355468496</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.548387096774194</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.003550490449817298</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marketing</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Accounts &amp; Finance</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1254148</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1225498</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>28650</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.507584325912899</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.473508748409567</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.337825112729682</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.03407557750333204</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Admin &amp; HR</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>510500</v>
+      </c>
+      <c r="C66" t="n">
+        <v>340000</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>170500</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.427759561374363</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9636841304182078</v>
+      </c>
+      <c r="J66" t="n">
+        <v>50.14705882352941</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4640754309561556</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Total 100101 Salaries &amp; Wages</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2394248</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2185498</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>208750</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.696200733205576</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.194499234296271</v>
+      </c>
+      <c r="J67" t="n">
+        <v>9.55159876604783</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.501701498909305</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other benefits (Direct &amp; indrect)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>208569.25</v>
+      </c>
+      <c r="C68" t="n">
+        <v>213969.25</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-5400</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.5833236844195493</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.6064669724190768</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-2.523727124341465</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-0.02314328799952739</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales Commission</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales Rep Commission</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>232285</v>
+      </c>
+      <c r="C70" t="n">
+        <v>221802</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>10483</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.6496515763248657</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6286678455735861</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.726287409491349</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.02098373075127957</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Total 100103 Sales Commission</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>232285</v>
+      </c>
+      <c r="C71" t="n">
+        <v>221802</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>10483</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.6496515763248657</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.6286678455735861</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.726287409491349</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.02098373075127957</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Total 1001 Salaries &amp; Benefits</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2835102.25</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2621269.25</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>213833</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7.929175993949992</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.429634052288934</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8.157612957921053</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.4995419416610566</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Rent</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>323800</v>
+      </c>
+      <c r="C74" t="n">
+        <v>323800</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9055995023957274</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9177674159688697</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.01216791357314222</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toll Tax</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>60</v>
+      </c>
+      <c r="C75" t="n">
+        <v>90</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0001678071962438037</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0002550928580518785</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-8.72856618080748e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Total 1002 Rent, Rate &amp; Taxes</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>323860</v>
+      </c>
+      <c r="C76" t="n">
+        <v>323890</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9057673095919712</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9180225088269215</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.00926240390255951</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.01225519923495032</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Utilities</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elecricity Charges</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>224127</v>
+      </c>
+      <c r="C78" t="n">
+        <v>160892</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>63235</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.6268353912089166</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.4560266679742538</v>
+      </c>
+      <c r="J78" t="n">
+        <v>39.30276210128533</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1708087232346628</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gas Charges</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>129290</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>0.3615965400393564</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Water Charges</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5600</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.01566200498275501</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01927368260836415</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-17.64705882352941</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.003611677625609141</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Total 1003 Utilities</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>359017</v>
+      </c>
+      <c r="C81" t="n">
+        <v>167692</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>191325</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.004093936231028</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.4753003505826179</v>
+      </c>
+      <c r="J81" t="n">
+        <v>114.0930992533931</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.5287935856484101</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Audit Fee</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>0.08949717133002866</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Filing Fee</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32000</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.08949717133002866</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.09069968286289014</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.001202511532861486</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Professional Services</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>484012.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>481600</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2412.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.353679676199234</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.365030227086496</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5009343853820598</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-0.01135055088726244</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Registration Fee</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>30770</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0.08721341380284779</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fee &amp; Subcription</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>51959</v>
+      </c>
+      <c r="C87" t="n">
+        <v>413917.33</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-361958.33</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.1453182351605299</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.173192830076695</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-87.44701025202303</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-1.027874594916165</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Total 1004 Legal &amp; Professional Charges</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>599971.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>958287.3300000001</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-358315.8300000001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.677992254019822</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.71613615382893</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-37.39127282419565</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-1.038143899809108</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Communication Charges</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Internet Charges</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>27608</v>
+      </c>
+      <c r="C90" t="n">
+        <v>24905</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2703</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.07721368456498222</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.07058986255313372</v>
+      </c>
+      <c r="J90" t="n">
+        <v>10.85324232081911</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0066238220118485</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mobile Charges</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>88468</v>
+      </c>
+      <c r="C91" t="n">
+        <v>60135</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>28333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.2474261172882805</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.1704445446549968</v>
+      </c>
+      <c r="J91" t="n">
+        <v>47.11565643967739</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.07698157263328362</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Postage &amp; Courier</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3190</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1191</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.008921749266962231</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.005665895813841168</v>
+      </c>
+      <c r="J92" t="n">
+        <v>59.57978989494747</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.003255853453121063</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Telephone Bill</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6430</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.01798333786412763</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.01536225878490202</v>
+      </c>
+      <c r="J93" t="n">
+        <v>18.63468634686347</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.002621079079225615</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Total 1005 Communication Charges</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>125696</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92459</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>33237</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3515448889843525</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.2620625618068738</v>
+      </c>
+      <c r="J94" t="n">
+        <v>35.9478255226641</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.08948232717747878</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equipment Repair</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>23000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>49875</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-26875</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.06432609189345809</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.1413639588370827</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-53.88471177944862</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-0.07703786694362459</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Repair</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>18450</v>
+      </c>
+      <c r="C97" t="n">
+        <v>19555</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1105</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.05160071284496965</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.05542600932449427</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-5.650728713883917</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-0.00382529647952462</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vehicles Repair</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>65182</v>
+      </c>
+      <c r="C98" t="n">
+        <v>64315</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>867</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.1823001444260602</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.1822921907289619</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.348052553836586</v>
+      </c>
+      <c r="K98" t="n">
+        <v>7.953697098378801e-06</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Total 1006 Repair &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>106632</v>
+      </c>
+      <c r="C99" t="n">
+        <v>133745</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-27113</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.298226949164488</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.3790821588905388</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-20.27215970690493</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.08085520972605084</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel Charges</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>423349</v>
+      </c>
+      <c r="C101" t="n">
+        <v>466089</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-42740</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.184016812043634</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.3210663901838</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-9.169922482615982</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-0.1370495781401658</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Total 1007 Travelling &amp; Conveyance</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>423349</v>
+      </c>
+      <c r="C102" t="n">
+        <v>466089</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-42740</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.184016812043634</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.3210663901838</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-9.169922482615982</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-0.1370495781401658</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Supplies</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>34833</v>
+      </c>
+      <c r="C104" t="n">
+        <v>42735</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-7902</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.09742046777934024</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.1211265920983003</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-18.49069849069849</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.02370612431896007</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stationary Expense</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>24178</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9040</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>15138</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.06762070651304478</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.02562266040876646</v>
+      </c>
+      <c r="J105" t="n">
+        <v>167.4557522123894</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.04199804610427831</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Total 1008 Office Supplies &amp; Stationary</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>59011</v>
+      </c>
+      <c r="C106" t="n">
+        <v>51775</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>7236</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.165041174292385</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.1467492525070668</v>
+      </c>
+      <c r="J106" t="n">
+        <v>13.97585707387735</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.01829192178531822</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agency Fee</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>140000</v>
+      </c>
+      <c r="C108" t="n">
+        <v>140000</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.3915501245688753</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.3968111125251443</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.005260987956269038</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Spend</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>333895</v>
+      </c>
+      <c r="C109" t="n">
+        <v>243541</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>90354</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9338330631637474</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.6902841082534728</v>
+      </c>
+      <c r="J109" t="n">
+        <v>37.10011866585092</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.2435489549102747</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ad Production</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0.04251547634197975</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Total 1009 Advertisement &amp; Publicity</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>473895</v>
+      </c>
+      <c r="C111" t="n">
+        <v>398541</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>75354</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.325383187732623</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.129610697120597</v>
+      </c>
+      <c r="J111" t="n">
+        <v>18.90746497850911</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.195772490612026</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Entertainment</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C113" t="n">
+        <v>17818</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-7818</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.02796786604063395</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.05050271716409301</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-43.87697833651364</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-0.02253485112345906</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Staff Food</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>20490</v>
+      </c>
+      <c r="C114" t="n">
+        <v>22170</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1680</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.05730615751725897</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.06283787403344608</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-7.577807848443843</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.005531716516187109</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Total 1010 Food &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>30490</v>
+      </c>
+      <c r="C115" t="n">
+        <v>39988</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-9498</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.08527402355789293</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.1133405911975391</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-23.75212563769131</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-0.02806656763964617</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Total Expenses</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5337023.75</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5253735.58</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>83288.16999999993</v>
+      </c>
+      <c r="H116" t="n">
+        <v>14.92651652956819</v>
+      </c>
+      <c r="I116" t="n">
+        <v>14.89100471723382</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.585313321002728</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.0355118123343684</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Expenses</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3103700</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1920310</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1183390</v>
+      </c>
+      <c r="H119" t="n">
+        <v>8.680386583031559</v>
+      </c>
+      <c r="I119" t="n">
+        <v>5.442859624951143</v>
+      </c>
+      <c r="J119" t="n">
+        <v>61.6249459722649</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3.237526958080418</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bank Service Charges</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>24491.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>36780.2</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-12288.8</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.06849721943475824</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.1042485148635522</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-33.4114550763726</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.035751295428794</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other expenses-Other</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>119362</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>0.333830042634215</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euphoria Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>771180</v>
+      </c>
+      <c r="C122" t="n">
+        <v>866130</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-94950</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.156825893321609</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2.454928634938595</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-10.96255758373454</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.2981027416169856</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Total 16 Other Expenses</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4018733.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2823220.2</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1195513.2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>11.23953973842214</v>
+      </c>
+      <c r="I123" t="n">
+        <v>8.002036774753291</v>
+      </c>
+      <c r="J123" t="n">
+        <v>42.34572988674421</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3.237502963668852</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Total Other Expenses</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4018733.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2823220.2</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1195513.2</v>
+      </c>
+      <c r="H124" t="n">
+        <v>11.23953973842214</v>
+      </c>
+      <c r="I124" t="n">
+        <v>8.002036774753291</v>
+      </c>
+      <c r="J124" t="n">
+        <v>42.34572988674421</v>
+      </c>
+      <c r="K124" t="n">
+        <v>3.237502963668852</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Net Earnings</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5023295.85</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6066005.22</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1042709.37</v>
+      </c>
+      <c r="H125" t="n">
+        <v>14.04908654152725</v>
+      </c>
+      <c r="I125" t="n">
+        <v>17.19327342808238</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-17.18939124157233</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-3.144186886555134</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Monday, Mar 18, 2024 07:00:33 PM GMT+5 - Accrual Basis</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Account group</t>
+        </is>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploaded_files/cleaned_Feb to Jan.xlsx
+++ b/uploaded_files/cleaned_Feb to Jan.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>outliers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Account type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Account hierarchy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>outliers</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -498,14 +498,14 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -525,15 +525,15 @@
       <c r="C3" t="n">
         <v>19837550</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>1664950</v>
       </c>
@@ -558,14 +558,14 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -585,15 +585,15 @@
       <c r="C5" t="n">
         <v>492600</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>648400</v>
       </c>
@@ -622,14 +622,14 @@
       <c r="C6" t="n">
         <v>492600</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>648400</v>
@@ -655,14 +655,14 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -682,15 +682,15 @@
       <c r="C8" t="n">
         <v>10069890</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>-624180</v>
       </c>
@@ -719,15 +719,15 @@
       <c r="C9" t="n">
         <v>1406350</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>-1176040</v>
       </c>
@@ -756,14 +756,14 @@
       <c r="C10" t="n">
         <v>11476240</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>-1800220</v>
@@ -793,15 +793,15 @@
       <c r="C11" t="n">
         <v>650950</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>49890</v>
       </c>
@@ -830,15 +830,15 @@
       <c r="C12" t="n">
         <v>2687130</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>-368970</v>
       </c>
@@ -865,15 +865,15 @@
         <v>232000</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>0.6488544921427076</v>
@@ -894,15 +894,15 @@
       <c r="C14" t="n">
         <v>136800</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>48000</v>
       </c>
@@ -931,18 +931,18 @@
       <c r="C15" t="n">
         <v>35281270</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>474050</v>
@@ -968,14 +968,14 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -991,14 +991,14 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1014,14 +1014,14 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1041,15 +1041,15 @@
       <c r="C19" t="n">
         <v>2829655</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>-270299</v>
       </c>
@@ -1078,15 +1078,15 @@
       <c r="C20" t="n">
         <v>3120564</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>993027</v>
       </c>
@@ -1115,15 +1115,15 @@
       <c r="C21" t="n">
         <v>381384</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>291917</v>
       </c>
@@ -1152,15 +1152,15 @@
       <c r="C22" t="n">
         <v>954170</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>-470998</v>
       </c>
@@ -1189,14 +1189,14 @@
       <c r="C23" t="n">
         <v>7285773</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>543647</v>
@@ -1222,14 +1222,14 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1249,15 +1249,15 @@
       <c r="C25" t="n">
         <v>748719</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
         <v>22083</v>
       </c>
@@ -1286,15 +1286,15 @@
       <c r="C26" t="n">
         <v>453900</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>-23619</v>
       </c>
@@ -1323,15 +1323,15 @@
       <c r="C27" t="n">
         <v>426291</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>36170</v>
       </c>
@@ -1360,15 +1360,15 @@
       <c r="C28" t="n">
         <v>152502</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>15626</v>
       </c>
@@ -1397,15 +1397,15 @@
       <c r="C29" t="n">
         <v>1928059</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>-224282</v>
       </c>
@@ -1434,14 +1434,14 @@
       <c r="C30" t="n">
         <v>3709471</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>-174022</v>
@@ -1471,15 +1471,15 @@
       <c r="C31" t="n">
         <v>515152</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
         <v>123154</v>
       </c>
@@ -1508,15 +1508,15 @@
       <c r="C32" t="n">
         <v>2170088</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
         <v>-526071</v>
       </c>
@@ -1545,15 +1545,15 @@
       <c r="C33" t="n">
         <v>1056654</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
         <v>59347</v>
       </c>
@@ -1582,15 +1582,15 @@
       <c r="C34" t="n">
         <v>409496</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
         <v>-12682</v>
       </c>
@@ -1619,15 +1619,15 @@
       <c r="C35" t="n">
         <v>667966</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>-259648</v>
       </c>
@@ -1656,15 +1656,15 @@
       <c r="C36" t="n">
         <v>532241</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>-52236</v>
       </c>
@@ -1693,14 +1693,14 @@
       <c r="C37" t="n">
         <v>16346841</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>-298511</v>
@@ -1726,14 +1726,14 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1753,15 +1753,15 @@
       <c r="C39" t="n">
         <v>4858181</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
         <v>-46550</v>
       </c>
@@ -1790,15 +1790,15 @@
       <c r="C40" t="n">
         <v>800440</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
         <v>-314080</v>
       </c>
@@ -1827,15 +1827,15 @@
       <c r="C41" t="n">
         <v>720988</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
         <v>93750</v>
       </c>
@@ -1864,14 +1864,14 @@
       <c r="C42" t="n">
         <v>6379609</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>-266880</v>
@@ -1897,14 +1897,14 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1924,15 +1924,15 @@
       <c r="C44" t="n">
         <v>1519158</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
         <v>-10880</v>
       </c>
@@ -1961,15 +1961,15 @@
       <c r="C45" t="n">
         <v>2330177</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
         <v>567548</v>
       </c>
@@ -1998,15 +1998,15 @@
       <c r="C46" t="n">
         <v>1398929</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>-173727</v>
       </c>
@@ -2035,15 +2035,15 @@
       <c r="C47" t="n">
         <v>281359</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
         <v>-161930</v>
       </c>
@@ -2072,15 +2072,15 @@
       <c r="C48" t="n">
         <v>92482</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
         <v>22603</v>
       </c>
@@ -2109,15 +2109,15 @@
       <c r="C49" t="n">
         <v>583115</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
         <v>-153635</v>
       </c>
@@ -2146,15 +2146,15 @@
       <c r="C50" t="n">
         <v>264456</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>Cost of Sales</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
         <v>-33356</v>
       </c>
@@ -2183,14 +2183,14 @@
       <c r="C51" t="n">
         <v>6469676</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>56623</v>
@@ -2220,18 +2220,18 @@
       <c r="C52" t="n">
         <v>29196126</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>-508768</v>
@@ -2261,15 +2261,15 @@
       <c r="C53" t="n">
         <v>6085144</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
         <v>982818</v>
       </c>
@@ -2294,14 +2294,14 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2317,14 +2317,14 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F55" t="b">
-        <v>0</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2344,15 +2344,15 @@
       <c r="C56" t="n">
         <v>6712350</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>Other Income(Loss)</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>-273550</v>
       </c>
@@ -2381,15 +2381,15 @@
       <c r="C57" t="n">
         <v>1345467</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>Other Income(Loss)</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
         <v>-473176</v>
       </c>
@@ -2418,14 +2418,14 @@
       <c r="C58" t="n">
         <v>8057817</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>-746726</v>
@@ -2455,14 +2455,14 @@
       <c r="C59" t="n">
         <v>8057817</v>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>-746726</v>
@@ -2488,14 +2488,14 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2511,14 +2511,14 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2561,15 +2561,15 @@
       <c r="C63" t="n">
         <v>620000</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
         <v>9600</v>
       </c>
@@ -2598,15 +2598,15 @@
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
         <v>0</v>
       </c>
@@ -2633,15 +2633,15 @@
       <c r="C65" t="n">
         <v>1225498</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
         <v>28650</v>
       </c>
@@ -2670,15 +2670,15 @@
       <c r="C66" t="n">
         <v>340000</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
         <v>170500</v>
       </c>
@@ -2707,14 +2707,14 @@
       <c r="C67" t="n">
         <v>2185498</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>208750</v>
@@ -2744,15 +2744,15 @@
       <c r="C68" t="n">
         <v>213969.25</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
         <v>-5400</v>
       </c>
@@ -2777,14 +2777,14 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -2804,15 +2804,15 @@
       <c r="C70" t="n">
         <v>221802</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
         <v>10483</v>
       </c>
@@ -2841,14 +2841,14 @@
       <c r="C71" t="n">
         <v>221802</v>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>10483</v>
@@ -2878,14 +2878,14 @@
       <c r="C72" t="n">
         <v>2621269.25</v>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>213833</v>
@@ -2911,14 +2911,14 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2938,15 +2938,15 @@
       <c r="C74" t="n">
         <v>323800</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
         <v>0</v>
       </c>
@@ -2975,15 +2975,15 @@
       <c r="C75" t="n">
         <v>90</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
         <v>-30</v>
       </c>
@@ -3012,14 +3012,14 @@
       <c r="C76" t="n">
         <v>323890</v>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>-30</v>
@@ -3045,14 +3045,14 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -3072,15 +3072,15 @@
       <c r="C78" t="n">
         <v>160892</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
         <v>63235</v>
       </c>
@@ -3107,15 +3107,15 @@
         <v>129290</v>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
         <v>0.3615965400393564</v>
@@ -3136,15 +3136,15 @@
       <c r="C80" t="n">
         <v>6800</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
         <v>-1200</v>
       </c>
@@ -3173,14 +3173,14 @@
       <c r="C81" t="n">
         <v>167692</v>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>191325</v>
@@ -3206,14 +3206,14 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3231,15 +3231,15 @@
         <v>32000</v>
       </c>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>0.08949717133002866</v>
@@ -3260,15 +3260,15 @@
       <c r="C84" t="n">
         <v>32000</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
         <v>0</v>
       </c>
@@ -3297,15 +3297,15 @@
       <c r="C85" t="n">
         <v>481600</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
         <v>2412.5</v>
       </c>
@@ -3332,15 +3332,15 @@
       <c r="C86" t="n">
         <v>30770</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
@@ -3361,15 +3361,15 @@
       <c r="C87" t="n">
         <v>413917.33</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="b">
-        <v>1</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
         <v>-361958.33</v>
       </c>
@@ -3398,14 +3398,14 @@
       <c r="C88" t="n">
         <v>958287.3300000001</v>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>-358315.8300000001</v>
@@ -3431,14 +3431,14 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -3458,15 +3458,15 @@
       <c r="C90" t="n">
         <v>24905</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
         <v>2703</v>
       </c>
@@ -3495,15 +3495,15 @@
       <c r="C91" t="n">
         <v>60135</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
         <v>28333</v>
       </c>
@@ -3532,15 +3532,15 @@
       <c r="C92" t="n">
         <v>1999</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="b">
-        <v>1</v>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
         <v>1191</v>
       </c>
@@ -3569,15 +3569,15 @@
       <c r="C93" t="n">
         <v>5420</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
         <v>1010</v>
       </c>
@@ -3606,14 +3606,14 @@
       <c r="C94" t="n">
         <v>92459</v>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>33237</v>
@@ -3639,14 +3639,14 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3666,15 +3666,15 @@
       <c r="C96" t="n">
         <v>49875</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="b">
-        <v>1</v>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
         <v>-26875</v>
       </c>
@@ -3703,15 +3703,15 @@
       <c r="C97" t="n">
         <v>19555</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
         <v>-1105</v>
       </c>
@@ -3740,15 +3740,15 @@
       <c r="C98" t="n">
         <v>64315</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
         <v>867</v>
       </c>
@@ -3777,14 +3777,14 @@
       <c r="C99" t="n">
         <v>133745</v>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>-27113</v>
@@ -3810,14 +3810,14 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -3837,15 +3837,15 @@
       <c r="C101" t="n">
         <v>466089</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
         <v>-42740</v>
       </c>
@@ -3874,14 +3874,14 @@
       <c r="C102" t="n">
         <v>466089</v>
       </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>-42740</v>
@@ -3907,14 +3907,14 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -3934,15 +3934,15 @@
       <c r="C104" t="n">
         <v>42735</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
         <v>-7902</v>
       </c>
@@ -3971,15 +3971,15 @@
       <c r="C105" t="n">
         <v>9040</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="b">
-        <v>1</v>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
         <v>15138</v>
       </c>
@@ -4008,14 +4008,14 @@
       <c r="C106" t="n">
         <v>51775</v>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>7236</v>
@@ -4041,14 +4041,14 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -4068,15 +4068,15 @@
       <c r="C108" t="n">
         <v>140000</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
         <v>0</v>
       </c>
@@ -4105,15 +4105,15 @@
       <c r="C109" t="n">
         <v>243541</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
         <v>90354</v>
       </c>
@@ -4140,15 +4140,15 @@
       <c r="C110" t="n">
         <v>15000</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
@@ -4169,14 +4169,14 @@
       <c r="C111" t="n">
         <v>398541</v>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>75354</v>
@@ -4202,14 +4202,14 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -4229,15 +4229,15 @@
       <c r="C113" t="n">
         <v>17818</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="b">
-        <v>1</v>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
         <v>-7818</v>
       </c>
@@ -4266,15 +4266,15 @@
       <c r="C114" t="n">
         <v>22170</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
         <v>-1680</v>
       </c>
@@ -4303,14 +4303,14 @@
       <c r="C115" t="n">
         <v>39988</v>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F115" t="b">
-        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>-9498</v>
@@ -4340,18 +4340,18 @@
       <c r="C116" t="n">
         <v>5253735.58</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>83288.16999999993</v>
@@ -4377,14 +4377,14 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F117" t="b">
-        <v>0</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -4400,14 +4400,14 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F118" t="b">
-        <v>0</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -4427,15 +4427,15 @@
       <c r="C119" t="n">
         <v>1920310</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="b">
-        <v>1</v>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
         <v>1183390</v>
       </c>
@@ -4464,15 +4464,15 @@
       <c r="C120" t="n">
         <v>36780.2</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="b">
-        <v>0</v>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
         <v>-12288.8</v>
       </c>
@@ -4499,15 +4499,15 @@
         <v>119362</v>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
         <v>0.333830042634215</v>
@@ -4528,15 +4528,15 @@
       <c r="C122" t="n">
         <v>866130</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>Expenses</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="b">
-        <v>0</v>
-      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
         <v>-94950</v>
       </c>
@@ -4565,14 +4565,14 @@
       <c r="C123" t="n">
         <v>2823220.2</v>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>1195513.2</v>
@@ -4602,14 +4602,14 @@
       <c r="C124" t="n">
         <v>2823220.2</v>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
         <is>
           <t>Subtotals</t>
         </is>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>1195513.2</v>
@@ -4639,15 +4639,15 @@
       <c r="C125" t="n">
         <v>6066005.22</v>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>Key KPI</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="b">
-        <v>1</v>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
         <v>-1042709.37</v>
       </c>
@@ -4672,14 +4672,14 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
         <is>
           <t>Account group</t>
         </is>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
